--- a/data/trans_dic/P1805_2016_2023-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P1805_2016_2023-Dificultad-trans_dic.xlsx
@@ -618,7 +618,7 @@
         <v>0.04695210729003907</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.05576684303599475</v>
+        <v>0.05576684303599474</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.03570584341598499</v>
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.01535316661685517</v>
+        <v>0.01476067400972375</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.04202350139105954</v>
+        <v>0.04359655466840862</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.03571404115974512</v>
+        <v>0.0351158905724854</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.04158870112294646</v>
+        <v>0.04201209905325545</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.02843300958893389</v>
+        <v>0.0282181315345497</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.04641663954149967</v>
+        <v>0.0467395405257216</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.03471587980211047</v>
+        <v>0.0333058763380572</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.09302522666000443</v>
+        <v>0.09601316025611162</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.06135396543238891</v>
+        <v>0.05969485882913159</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.07231362932775977</v>
+        <v>0.07425037431035567</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.04425539688809359</v>
+        <v>0.04474589960940467</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.07503418639531262</v>
+        <v>0.07442142420598802</v>
       </c>
     </row>
     <row r="7">
@@ -700,7 +700,7 @@
         <v>0.03673403679726313</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.03623393408826787</v>
+        <v>0.03623393408826788</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.02616467434136093</v>
@@ -717,22 +717,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.007795249714275162</v>
+        <v>0.007722688137984986</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.01433012527674974</v>
+        <v>0.01537133514615417</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.0249420610666846</v>
+        <v>0.02566763783799827</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.02673074264702479</v>
+        <v>0.02699828541676101</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.01998877146312573</v>
+        <v>0.0193629955604128</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.02363554437220395</v>
+        <v>0.02444521917848355</v>
       </c>
     </row>
     <row r="9">
@@ -743,22 +743,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.02475470591322745</v>
+        <v>0.02340783688344083</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.04192185794477219</v>
+        <v>0.04226373810776307</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.0489017684413013</v>
+        <v>0.05328554219479023</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.04815664647537701</v>
+        <v>0.04794235094705585</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.03527334664934249</v>
+        <v>0.03437548464963943</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.04036750855005653</v>
+        <v>0.04130079560471663</v>
       </c>
     </row>
     <row r="10">
@@ -788,7 +788,7 @@
         <v>0.02315473171453682</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>0.02948554159093934</v>
+        <v>0.02948554159093935</v>
       </c>
     </row>
     <row r="11">
@@ -799,22 +799,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.01315164838481112</v>
+        <v>0.01209365589654403</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.01038108926907158</v>
+        <v>0.01007574828554095</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.01588487902635747</v>
+        <v>0.01479811353267951</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.03072823689762294</v>
+        <v>0.03113574363672596</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.01574401348655978</v>
+        <v>0.01630224641260829</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.02231541411067209</v>
+        <v>0.02256586727771573</v>
       </c>
     </row>
     <row r="12">
@@ -825,22 +825,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.03321105864411319</v>
+        <v>0.03282891421935236</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.02646124123281459</v>
+        <v>0.02581643770443269</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.03935390008932586</v>
+        <v>0.039697649239937</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.05759040679161156</v>
+        <v>0.05902040962725621</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.03170825906075874</v>
+        <v>0.03149093614003662</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.03809433549862655</v>
+        <v>0.03796554605316498</v>
       </c>
     </row>
     <row r="13">
@@ -864,13 +864,13 @@
         <v>0.02785269975222634</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.03763431189656926</v>
+        <v>0.03763431189656925</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.01816009888641317</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>0.036844672941139</v>
+        <v>0.03684467294113899</v>
       </c>
     </row>
     <row r="14">
@@ -881,22 +881,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.002028648608188571</v>
+        <v>0.003013569235784205</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.02413025605606619</v>
+        <v>0.02407100871361442</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.01555292126287792</v>
+        <v>0.01492950199965399</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.02770349277205843</v>
+        <v>0.02868721270785602</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.01116320235873728</v>
+        <v>0.0109232188061883</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.02830925954609667</v>
+        <v>0.02804665508198652</v>
       </c>
     </row>
     <row r="15">
@@ -907,22 +907,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.02292723356549936</v>
+        <v>0.02488904490448562</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.05672803175890249</v>
+        <v>0.05161938992344624</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.04694259953200138</v>
+        <v>0.04736355142669117</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.04851007829423741</v>
+        <v>0.04985113727027899</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.028232780416244</v>
+        <v>0.02921059644685569</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.04769862573125491</v>
+        <v>0.04606529381366671</v>
       </c>
     </row>
     <row r="16">
@@ -952,7 +952,7 @@
         <v>0.02761578083768275</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>0.03663931694485039</v>
+        <v>0.0366393169448504</v>
       </c>
     </row>
     <row r="17">
@@ -963,22 +963,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.01409013361535964</v>
+        <v>0.01390875094005984</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.02466762829924599</v>
+        <v>0.0248960141726519</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.03022571042525011</v>
+        <v>0.03073987740332499</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.03559032006828487</v>
+        <v>0.03558940793285121</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.0235135024292892</v>
+        <v>0.02348054139239441</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.03238900724620963</v>
+        <v>0.03211407481677925</v>
       </c>
     </row>
     <row r="18">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.02284775167569063</v>
+        <v>0.02329699111161847</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.03916986322115011</v>
+        <v>0.03947512555397698</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.04359633080627835</v>
+        <v>0.04393614161094572</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.0475399941634365</v>
+        <v>0.0475789287415696</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.03198048166747145</v>
+        <v>0.03171135604866229</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.0419190974859419</v>
+        <v>0.04125534326178857</v>
       </c>
     </row>
     <row r="19">
@@ -1191,22 +1191,22 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>17318</v>
+        <v>16650</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>20959</v>
+        <v>21743</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>44984</v>
+        <v>44231</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>25934</v>
+        <v>26198</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>67885</v>
+        <v>67372</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>52094</v>
+        <v>52457</v>
       </c>
     </row>
     <row r="7">
@@ -1217,22 +1217,22 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>39159</v>
+        <v>37569</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>46395</v>
+        <v>47886</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>77279</v>
+        <v>75189</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>45093</v>
+        <v>46301</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>105662</v>
+        <v>106833</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>84212</v>
+        <v>83525</v>
       </c>
     </row>
     <row r="8">
@@ -1299,22 +1299,22 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>7085</v>
+        <v>7019</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>13759</v>
+        <v>14759</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>25104</v>
+        <v>25834</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>29827</v>
+        <v>30126</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>38284</v>
+        <v>37086</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>49067</v>
+        <v>50748</v>
       </c>
     </row>
     <row r="11">
@@ -1325,22 +1325,22 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>22498</v>
+        <v>21274</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>40251</v>
+        <v>40579</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>49218</v>
+        <v>53631</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>53736</v>
+        <v>53496</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>67559</v>
+        <v>65839</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>83802</v>
+        <v>85740</v>
       </c>
     </row>
     <row r="12">
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>10834</v>
+        <v>9962</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>10864</v>
+        <v>10544</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>12248</v>
+        <v>11410</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>32192</v>
+        <v>32619</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>25109</v>
+        <v>25999</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>46731</v>
+        <v>47256</v>
       </c>
     </row>
     <row r="15">
@@ -1433,22 +1433,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>27358</v>
+        <v>27043</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>27691</v>
+        <v>27016</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>30344</v>
+        <v>30609</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>60334</v>
+        <v>61832</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>50569</v>
+        <v>50222</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>79774</v>
+        <v>79504</v>
       </c>
     </row>
     <row r="16">
@@ -1515,22 +1515,22 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>1028</v>
+        <v>1527</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>23549</v>
+        <v>23492</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>7616</v>
+        <v>7311</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>25173</v>
+        <v>26066</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>11123</v>
+        <v>10884</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>53351</v>
+        <v>52856</v>
       </c>
     </row>
     <row r="19">
@@ -1541,22 +1541,22 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>11617</v>
+        <v>12611</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>55363</v>
+        <v>50377</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>22988</v>
+        <v>23194</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>44078</v>
+        <v>45297</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>28131</v>
+        <v>29105</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>89891</v>
+        <v>86813</v>
       </c>
     </row>
     <row r="20">
@@ -1623,22 +1623,22 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>47445</v>
+        <v>46835</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>85875</v>
+        <v>86670</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>106600</v>
+        <v>108413</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>131532</v>
+        <v>131528</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>162104</v>
+        <v>161877</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>232456</v>
+        <v>230483</v>
       </c>
     </row>
     <row r="23">
@@ -1649,22 +1649,22 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>76935</v>
+        <v>78448</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>136361</v>
+        <v>137424</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>153755</v>
+        <v>154954</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>175694</v>
+        <v>175838</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>220476</v>
+        <v>218620</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>300853</v>
+        <v>296090</v>
       </c>
     </row>
     <row r="24">
